--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/37_Hatay_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/37_Hatay_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B3B78F1-0B8B-4520-B95C-186A507E7E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62500721-DD5A-4D8A-B2FA-4322CE897DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{06004BD0-4F48-4993-B8BD-7B24351435F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{2271824A-642A-41D4-87BB-D829DD9B65FC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{2A99CDA1-02C3-470C-A73B-BA790571034C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{824822CA-BE69-4675-B4FA-41C2FC290A67}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{1E6FF9A9-9BF6-4650-A5E2-26BB828785E4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{FA8FDD33-1751-44E9-BA42-AF7950D745D6}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{FAF1918B-0BA3-4E01-B9D2-6ECAAAC72657}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{5B2F5747-211D-4EC1-ADD3-04A1B87FC122}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F11DCAD6-7593-4957-B32B-EB17CB677171}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{4675F12B-F61E-474A-AC55-0B4879687543}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B30BB218-EB21-49FC-A14D-5438B2575E00}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B6556AE8-B2F2-4BD5-9E6E-D3D1706750EC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A173B9E7-ABE1-4406-9F63-6080283B1839}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2CC2D8D1-D6AC-4D88-9E66-EC32D3515DD9}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{0F40C4A0-06C0-49CF-9326-F1E23917857A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{209FDBFE-7D94-4FC2-91B8-6D4FB448618D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E193516-53C8-4E6F-8DDF-90BAD5E9EBD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EE5920-0227-4905-B283-2C7964367B6C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2580,18 +2580,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{039ED605-0A02-4A21-A494-C21D127738E7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76DE9D89-D9D5-4943-AA13-E91808B2F69E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FC0313C3-6AB2-441B-94FD-EAAF6EDEC9E4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E74B6FD8-C7E9-4D74-9542-9428C22D59C8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{63CDBD62-6995-4843-8064-60BADB9D237A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E47E0766-9A25-4723-B4BE-11ACD16F115F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C328AB38-B8A7-4F2F-B848-584BCACC5EC0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C497626-5AB6-489B-BEC5-5C9B2B8E9AB4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9563DA09-062F-4924-8646-4FC219694DB4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A5505A9F-37AA-4201-B4A7-BCF01E808391}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{854057EE-0C37-44AD-BB22-1988DD323E7E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BABB615-BF7F-495F-BFCE-C8095307180F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{363C6793-EED1-4CA5-ACCF-489D90074993}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F92FFDEA-0D36-4066-9F17-116F2EB36D6E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{85FDD72B-B2E5-4775-9C4D-F994243E498B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{57416D00-F060-4773-831A-E1F2B14269B2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5099BAC-F2F8-4695-9FFA-92FFB835919B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF008353-CBB9-4B5A-B9CE-739662820789}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76E6F347-FA79-4270-9F94-7A9B837DCDE4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71B59C49-0194-4638-9E05-0279F7F0C56A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7382F572-6A4D-4D86-9661-CC57E722B4A7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{834B3E49-6CC5-4387-8CFF-0A09459E6176}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C18EEF55-0701-4FBA-AB4C-9B160CA01619}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C6E17A6-1DFF-422C-BE63-A7847A848245}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2604,7 +2604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A4FC55-C11C-48CB-AA81-207C5960BA68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC11C43-F594-48FF-943A-580771E07911}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3850,18 +3850,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CC7B4CC-5134-473F-8633-D66DD7F1B161}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{266FFAE5-24C5-4243-86BB-A6937D43F7EC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B1A0872B-13DB-43FE-9660-587DE49F3B9B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8B250C9F-0D37-4131-82CA-DCE415ED8F7C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{709A9A37-099F-4B82-886A-BE22DB3AAAAD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F21427B6-08AF-411A-A17C-03E3E7B92B1E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE93FFC8-7723-4E43-934B-EE2E1744D111}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A80B0D0C-5243-4104-AF3C-3C47FB002675}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{369B2227-C487-49D0-91E2-CE8AF85E312E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CD9276D4-4056-446A-8427-7112BB335F43}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CE2DBD6-EE29-41E0-A0EE-BC91896F1B69}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37DF105E-BF34-4621-923D-CF83C23862AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92CAE193-5338-4B4B-9D14-D133AB5E0ABB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C842384-64C7-42A1-B4C0-8CC726C5E89D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EA811CA0-E6A6-4A5D-A934-6C9CCF8B0D83}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D58591D2-3A66-4CEA-9FC7-95BC25337CB1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2AFCF6F7-BF07-4CDB-8B8C-6EA622EE3BE4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{591EDA99-6E22-461A-887C-B043373467FC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B2FBE9F1-365C-48F4-8DE6-58B47B6865FB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03C452A2-B177-44D3-942B-E19F94DDA5F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A46712B9-D196-459E-B181-8850E7FA7CA3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BEAE64AC-6264-4134-A1F7-CF94C105775D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80B22AD6-F809-4178-A976-67BE5F4E831B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56972105-BA03-4BF5-8891-0F485C6CF656}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3874,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1591350-8BBD-4A6B-B8DD-C17088479295}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2165F084-9F26-4428-8E13-7DF3688A973F}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5120,18 +5120,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06D14C65-7A6F-48C4-9E73-C00A940A5C70}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4AB6744C-8CCB-431E-97C3-F0EFF26256FE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{975DAA2D-B378-4BEF-BBE6-61E33B371404}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DC12DBE2-0D35-4794-892D-9C50E1158721}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A18C654-AA98-4BD7-94B2-CA2A72612B09}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C67E162F-B6B8-4EF0-BCF3-78A49476C330}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB0884F9-47BF-4580-A4A6-356BBF7AD6A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A40E6813-51C4-41E8-BAD2-A7B689AD7038}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FBC9EA33-EFCF-41EA-B8DC-C85245C1BE18}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6FDE9168-CF93-4C9C-A0E1-D49E9FB1D518}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8B4FC57-AE00-4BDA-BFC8-0177DB601003}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C35D8E30-8E3B-40FC-8BAF-6287FA2B4416}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF89D1EA-F556-4182-8FB1-D20D862152E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E0E9912-5974-446B-B73B-CD0F688F9AE5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5013040-1BCC-4628-9E11-F259E55991D1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F21F3DD0-B7C8-4945-9AF1-7A7DB2A2E42C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CCD3F0FE-7F1E-4470-88A1-D6955FC0EBB8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3ABC7A5C-7B69-4268-8CE7-FC13ABF322F3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4DC7708F-F364-4834-B689-8A81C92A366C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DD34CEF-A651-4DE6-BAE9-9646C9D4832A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF83B70A-6991-4612-B288-7D0DB7BF4729}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{55A53F31-D513-4E76-AACA-5AFC4209FF11}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D62ACD2-EF0D-4676-9AE8-70EBB859A023}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C73B7D8C-0CBF-4668-BD00-B13B9F0CF0D6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5144,7 +5144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F689AB-2EE4-4C85-9034-6BF0C3D79587}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BB2364-4991-447B-B28D-5523E81B0E18}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6386,18 +6386,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40E1E0C0-A181-4AD3-B5E3-B3E1C515F38A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9B4A417-1DD3-4964-B3D4-1C8B6BEDDF9A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FF24E214-717E-46A5-9C86-1315E45CDC05}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{39C3E1A7-B226-404C-A91B-9A19CF8B5EDA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5090D425-8B8B-426E-A637-9DD9C04E8322}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D837B8AA-490C-455B-9137-C0418B063E2E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6058D99-68D1-43E8-8DEF-E93E8C70AD39}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69AE570F-7CAA-4BB7-AF92-82C129547DC9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4494692C-F171-4C24-8BB8-AAC6C49E82D8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D1F02E22-55D7-4D51-940D-5BF808AA2121}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{933A2D35-81F6-4271-A857-9C9FDB603F79}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{188F8584-42E2-4EA7-B9F2-88BF33127CFA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A55B92FA-9DA2-4660-9C9A-42A4FB9E7DF5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51B8FC74-F22D-45E2-A4B9-E105EA2764ED}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5C60CBE6-9DE6-4A53-9AB0-92B9C4D8B3B0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E0FB274D-9E73-4B5A-A1FE-794FAB9DD20E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C6B9DAD-3E84-4ADD-B90D-B1DE1929BF67}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5636FC43-1D56-48AA-828D-8D14B9FD8966}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86F8B943-8F26-40B5-90FD-8F422966C1FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA3D3CD0-28F1-478A-ABEF-684D1DB10ADB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A24B43C7-C77C-43FA-A1ED-21D2A7D788C1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EB85E57E-F72B-434D-958A-CADBB63D5377}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2E95823-8B98-4897-BB56-D8FAB49DC53D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{47E17ECE-BC05-4540-AF01-57340BC0BAF2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6410,7 +6410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFD5B0B-7A72-4691-B791-24EE6FD50A60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53002B04-5BF5-4B23-8DCA-BBB9C8F0B4ED}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7679,18 +7679,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60F2CC41-0A37-4F24-B632-D67438DFA27D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{29ACF020-657E-4180-B70C-6616BBBA6E0B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7F9B691D-76DD-4833-B9B1-8EB8B0901A0D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C4B14BFA-231D-4F94-BD1D-BB89DACF6525}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FED49553-8747-4D1D-A0C9-8306B81ACD61}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5F04E876-7ACE-4941-A139-A43C81C59374}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8526B9D-B3AD-4378-A11A-DE75B5FFA9C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B30FA6B5-1184-4442-9D9F-361A774F89DC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{437F57C2-0294-4ECE-A61F-8860B1520B26}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B7991E26-331F-4CEB-B90E-7FE876470E6F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5C0BE93-DAE8-4666-8D39-137D2B722D4A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{09B968E3-9E36-4754-893C-786BE324D353}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55917C60-A430-40FC-B833-68CABBF7DC02}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67B69D16-E806-40B6-A316-E407D954D3ED}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E88ED8B8-32E2-42B9-9F28-9CFFE99CB508}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F91A7E6B-A3E1-4863-A66E-2954C05B5C17}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C37FA960-570C-4617-B730-C96DCAE29D01}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9868C570-2553-4BE9-A1E1-21DCD02FA9E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D8F20AD-374D-4D70-B72B-08EABA194811}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07202D80-C38F-481B-9582-4504D3F72A25}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C71AEE29-20E1-4295-9F95-6ED909D3FC4D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A1EA91F9-A2D1-495D-8BF0-D0053F446341}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{639F4F20-4D14-4267-A8A2-9CC2E42882AA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BCBF7701-BB13-42D3-9C48-C8E36A72F53A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7703,7 +7703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC933A6-77D8-4A41-80DF-7F9DC5E2D76B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB5AD05-F534-4CBD-86BF-BEDC3DDF863D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8968,18 +8968,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{984E68FA-3131-4CCE-A22D-B97304C6ABA6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2E36A92-CED0-47E6-BCBE-A6DF145C9421}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FA55B5A6-0BE9-447A-8D55-F10F84ECA45F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FEE292F4-281E-4FBD-8CDF-D47D140D10AD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EA98B4B5-0271-4771-A736-64A57E5507C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CC9E2844-1336-47F3-ADE8-2F0225D0B399}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA174DF0-CBE4-464D-BDC0-F0F0CE4DDEC5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A6453539-54D9-4AA2-B3CE-CA2347F98308}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01DDBDDD-AFA5-4206-B04A-8CFA53A83FBA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D68DE74A-D113-4346-B071-C50A9C886E41}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F5D1FB1-2F7F-4106-9C69-470EAD7B012E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C2B03376-A4E3-469C-BAFD-332C40FBB095}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58A793CD-8D6A-4BB7-BEE1-F3EFC03D7E86}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08894F70-05FF-4F25-9AA2-CC8D5AABD861}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8D8FE922-91A4-42C0-AA19-EF31A6E13D37}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AE763687-F151-4134-BF71-D5AB4EA3F5D6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1451F35-B287-4AEE-9039-22AC0DD78CEB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E2A299DE-E979-4FF7-A57D-5FC4C223B1C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{901CF44C-62E4-4935-80BC-4189CD4BB810}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15835007-5DCF-4B66-A2B6-EFA5E3351F23}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9FE45E4-E284-4A54-95ED-1F0BDCCE83A5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8AB67CD0-B678-4E6C-9305-6A4712931379}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{904B1CBA-62D8-4586-9D9C-783DD6FBA5D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8ED80A3F-932E-4761-9406-0C9CC6948D17}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8992,7 +8992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02C3B8D-1E96-45DA-9F53-A60A9FA16F40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA67118-50E2-456F-90E9-4B1F36B25081}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10257,18 +10257,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{405DEE60-4976-4363-9231-6F4DF84BD25A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1853D76F-D90F-4CB7-85F0-10E2B9822F24}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0CF0E48-A18F-4E58-AC54-9948927DA2A6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{16389441-5A19-4E77-8757-A4E0E6F7DC4A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B6A4A84-7C37-430A-A355-4BCAF0DCA24D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{13695F10-AA33-4720-A9E0-AD6127F76DC4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E924FFAE-C1E9-4AFA-8C43-A602C382F047}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C609EA13-144E-4D8B-8794-FDC5C4CC864F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{133430A0-4179-4E6D-96BF-0546CFED12FE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2269660A-6EA9-49EA-8F39-0E338A1D14BA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCDBA93C-227A-4D92-9DB1-E6CAC6CE05FB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B301B27B-4F2E-497E-B99D-EA6636F2A601}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C487A08-CF17-4F60-AF42-2D3DFECABFBC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9351C2BB-5419-43AD-A857-849B363137FB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C927301E-9EDD-4E2B-8EFC-797FCBCE5C23}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3561BA2E-B8D0-45A5-A2CF-299F7228D781}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{45844755-A717-44AB-9855-F3A964B49ABC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2352F096-9157-45B5-856B-82BC36007011}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{249DD5FA-A10E-4074-88F3-87B3BC611C3E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F8063A93-311B-4098-9945-1FE45C2C5B57}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3315CEBA-8DA1-4D18-A720-D37814870AB5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E4B7F739-E2DC-4A1A-B7E5-828B62239913}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56C813CC-2B74-4535-845C-C34E1D6B9543}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52424757-855F-4B7C-AB30-CDE604E29F25}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10281,7 +10281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306A84AF-A37D-47E3-8C17-19BC27DC37D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB13D329-D4C6-4978-AA0B-285CB1AFE295}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11546,18 +11546,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A21779EF-D18D-4F17-8B4B-423984B17C37}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80C0A62E-2604-40F2-9316-AFE2074B983B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{22E03629-2E68-4353-9EBB-C9791C60C4A8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{28E4CF4A-F038-4A54-831A-773FCD6A6F5E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B326B4B2-D6AE-454F-BDE3-A7FA9875FC83}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C294C897-9917-4D00-B2FE-782353D610CA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5372B1C-24CF-4B70-8994-537BBC6F8D1C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C25D241-8FAA-46E0-BE00-CC9BD4831E3C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D67669E3-E02D-4D2F-8A8C-18EC4DCF4EB0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DDCB98ED-F6B5-4AA8-B3C7-87D6E3F94A24}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD22CE3C-A383-4C44-B678-800B07133D5A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E7785F0-710C-415D-9F56-DC93FCE3D2E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E5E208D-822F-4653-954A-0772743E6670}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19E21EE5-C1BC-48F9-8F23-F99DAF8DC30D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{69F5C430-669E-41A6-B831-D68FC9E7F4B8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F27F2558-F198-4C56-BD73-7FD3929239E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{48DBD5CD-7F94-4A3F-AD2A-1AC2C30261B2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2018D952-5D9C-4762-A4E7-36CB47145E4D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D44118DB-5308-4435-9244-A4EB948CB578}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{79841FA8-2BB0-4799-933F-E0C33CB5951C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34641F5F-142D-4ADD-A805-697BAABA940D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C7E0153-520B-461C-AC16-30E4A35CD775}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4B002CB-CE9E-460F-9F06-5AA9C074BFCA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4558AC92-E8BA-4316-ABB8-3A23CB1AD1CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11570,7 +11570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F75A32-7E0D-469E-924A-83E4992C2942}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF531620-3460-4390-BEDE-C879549244A5}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12819,18 +12819,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{66EA65EA-3B24-4CA9-A32D-D7B3D368B697}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E92A6260-AA89-4EC5-AF03-6D9D8F651A3C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{21D35159-9468-4769-9EF2-55B241812479}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9A7FC840-E2B7-4F5F-8D24-22F94A99EF6F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{760414C3-D727-4C26-B6AD-B790F2005E25}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{88B7F114-2AE8-43C1-888D-2E47C832A7DA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DBA0E97-28D9-4FFF-BCCF-796E0F52FA79}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{728930AD-E3EC-4052-98AC-939F73111AF7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{06E26A57-DF9B-4D29-813F-2AD748474295}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4395535B-71F5-4DFE-AD1C-869D7668F656}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B76C066-1338-43C9-801D-0C2FB12F2643}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A75056F9-7431-45B8-9105-64F40172525E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8656663-5193-4B9F-A08F-16D787D9E746}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{718D2E5C-7B70-42A3-A042-22FB609E2A10}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9A4AB5E9-D9B5-4D8A-9B7F-A5E2202CB184}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E93EE3A3-883D-473B-9D6D-F07CC459FBDF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{442A4ACD-8491-4BB6-B17A-8D08FA5077B2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68C1C1D4-1A1F-4588-8DE9-64E6EFA0E35B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E141A2D6-A6D1-44EE-AFEF-13AD944816CC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9738407D-D870-4E7D-93B4-AA4693B55BDA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D479F172-D7F1-428E-8B4F-521528516E34}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{184E56D8-023A-4F19-8C35-CC302D34E369}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6EB96E5B-4879-4140-ABE7-30E1C201A584}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{41545665-18AD-4A2F-A8D8-2105D62EC075}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12843,7 +12843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6852190-F745-4263-9918-15267FC5403A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE231F6-9418-4882-9092-1DBE9AF21B88}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14093,18 +14093,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8B28866-434F-42B8-B1C4-5B587CE53768}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D2FC2D1-216A-404A-9856-4D70683D30E1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{504A0998-2BA2-47A2-8002-EC9A28AE603A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DCE44A9A-0875-4C72-9364-62F218B3C3D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8FABE39C-B4C9-4B5F-BB9D-A101B92C6B6F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CC706D0B-5A6A-424A-A620-5AE996BC2CAD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E1C6D99D-906D-415F-B4F2-3CAAF4BF8F07}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0551562C-F821-448F-B9B5-B35CB7D7C2AF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{214C4F7F-2BB4-4F77-929F-A5A5D7EC94AA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{306AD18C-FAB5-43F4-9E33-3A12EE561F14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7BB8AFD2-82D3-4770-9379-1BC918AE561A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3EEACA43-CBF8-4DA6-827C-937D2475D72E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2683A7D4-FDE1-44B4-B6F6-7AAE38B15D8D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A6F8868-9846-46FA-B743-31C2DCDE89E2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9D39D6E2-2676-43A5-BE6F-63CDAC3B9276}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{63B10DFF-B7D1-4531-8E67-65DCF3194559}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD5F7949-1D30-43F6-9422-4803D4D6C990}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{24501E35-6F17-4366-A45A-F4B98C7CFEE6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{605074CA-A8E6-4F14-8276-30581346864E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A069DEB-E62C-49B8-BF1E-27F1FD1D966F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84531CB8-7420-481D-84A6-20493E9231D4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A9248657-E632-45D8-B8F1-7D9FF81E10BE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B178645A-A412-4EAB-85A3-A7B06E98E0B7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5341962-ABC1-4904-8E03-07624A0A8380}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14117,7 +14117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D702A97-9DE0-42F0-A1C7-E22F6E206AD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE77E22-DF83-4F0D-9462-BF7157347EF8}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15367,18 +15367,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA6259C1-A771-4150-AB12-41A30BA0DC65}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{735703FE-ECA7-4868-AB45-EF71028544B8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{20C41F74-C574-417B-9774-9C41BC283DD2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{84C980EB-0160-4095-82F7-8FA43D734227}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC3B2404-9831-45BA-9AAA-BABD167B3568}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D9D9734-5020-414C-8785-973C2D7404BE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F6AD2A70-4AA8-4231-B7D9-BFEA18FF84F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FFAED072-6AF7-4A1A-84EF-18D446AC912C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{957DCE3A-3E0B-416E-9DC9-9DB82C65D807}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F86B4673-7D84-47BE-A695-6C5C8BBA1949}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{023DFDAE-76B1-455E-B164-34F187D96AB5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D285E91F-8509-4270-A6FA-CCF27F158259}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C93EEF29-C85F-4A26-A30D-E4E0D01A7F44}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F74D9AB-8F0F-4486-8D3F-F95BE94507A2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9B6EF7A7-7DD4-4073-A9BC-1C0E46530914}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F070CAE7-20D4-46A4-A6DB-FB7DFCB96366}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECFDA4E1-C47A-435B-B57E-64FDA51DC227}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC9D6C9C-253C-4A5D-92A2-E2AF1F175BCB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B7C5882C-5342-4412-B0CF-D59EED2565F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD48C747-9333-4B1B-92A8-CF7BAFA6D4E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DBECA69-B4CC-40A1-B9FD-690400F1CAFF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5CE47FD2-7D6B-4822-BC96-CE7CCFEA12AB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3946AFC0-9EB4-47C5-9D6B-48F0ADB87220}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E97092BC-CDAB-4958-AC43-21D8664F0CEE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15391,7 +15391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CA8E7E-98F2-4516-B84F-03EAFFCC0D1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E33383-EEB1-4FA5-BEAC-2AB7AE3BBC51}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16641,18 +16641,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC258B42-D53C-4227-80DA-68D5D4028005}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1663CF6-C35D-4811-8F9C-A565C58B3D1A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C6DA0A1C-3E30-4295-8A1E-9A7FCF651F33}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2BA8B4FE-346D-41C0-AD8A-DC6A78E0EF1B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7064EBB-727D-4916-8576-5B12CC4C6A79}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D80650F-F232-4408-8093-E52943EA2F9A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA79E9B4-B24A-4175-817B-2EA28A4DA365}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CD305650-57FC-4CF7-B135-31C0410EE06E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A73B17A8-D163-44A0-8DCD-8E1AF96F72E8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3D76AD77-B2CD-4301-9611-0ACFC365DCE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E72402BF-3CD8-4E1E-8F5E-287E5D05A23A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{44680152-8F5C-4238-A2EC-41DD79911F76}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA3B12D7-E4EE-426E-936F-365013CD46AC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E276BEA-6932-4B22-8DBD-2B0DBE05CFC6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{89897575-B9E4-4C84-BB52-4BF845F7EE68}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{89A67FB2-EEF3-48BA-9537-15506AB83C67}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{57461553-BA72-49A1-AE6B-DA6639628723}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E33AFCE4-BD35-4D9D-9718-16637FC2EFE5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E38ECB8B-F006-488E-93E9-8E76B45C43A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F5142FFB-86F4-49BC-85B7-C3A67F152C85}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F845EDB-4BF8-4F51-A817-602256BBA6E8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7E72B43B-22D5-4AD3-B796-52DC75ED994D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B1209DD-DF76-4204-8ED2-1A05A9D42E97}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFD8D741-5D25-4605-9F39-905B0C61C07E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
